--- a/biology/Botanique/Psilocybe_coprophila/Psilocybe_coprophila.xlsx
+++ b/biology/Botanique/Psilocybe_coprophila/Psilocybe_coprophila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psilocybe coprophile
-Psilocybe coprophila, le Psilocybe coprophile, est une espèce de champignons du genre Psilocybe dans la famille des Strophariaceae. Il est toxique, coprophile et saprophyte[1]. Il se nourrit d'excréments animaux (coprophagie)[2]. 
+Psilocybe coprophila, le Psilocybe coprophile, est une espèce de champignons du genre Psilocybe dans la famille des Strophariaceae. Il est toxique, coprophile et saprophyte. Il se nourrit d'excréments animaux (coprophagie). 
 </t>
         </is>
       </c>
@@ -512,53 +524,56 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Deconica coprophila (Bull.) P.Karst.[3].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus coprophilus Bull.[3].
-Synonymes
-Deconica coprophila a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Deconica coprophila (Bull.) P.Karst..
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus coprophilus Bull..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Psilocybe_coprophila</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psilocybe_coprophila</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Deconica coprophila a pour synonymes :
 Agaricus coprophilus Bull.
 Deconica coprophila (Bull.) Fr.
 Geophila coprophila (Bull.) Anon.
 Geophila coprophila (Bull.) Quél.
 Psilocybe coprophila var. vomitiicola Killerm.
 Psilocybe coprophila (Bull.) P.Kumm.
-Stropharia coprophila (Bull.) J.E.Lange
-Étymologie
-L'origine étymologique de l'adjectif coprophile est kopros, le mot grec désignant l'excrément et phil qui signifie "qui aime".
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Psilocybe_coprophila</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Psilocybe_coprophila</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chapeau et stipe brun crème. Odeur d'herbe.
-</t>
+Stropharia coprophila (Bull.) J.E.Lange</t>
         </is>
       </c>
     </row>
@@ -583,10 +598,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine étymologique de l'adjectif coprophile est kopros, le mot grec désignant l'excrément et phil qui signifie "qui aime".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Psilocybe_coprophila</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psilocybe_coprophila</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chapeau et stipe brun crème. Odeur d'herbe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Psilocybe_coprophila</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psilocybe_coprophila</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Excréments d'animaux.
 </t>
